--- a/Excelsheet/Arun.xlsx
+++ b/Excelsheet/Arun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="564" windowWidth="15996" windowHeight="5244"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="16836" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>30/13/97</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>renurenu</t>
+  </si>
+  <si>
+    <t>Arunkumar</t>
+  </si>
+  <si>
+    <t>No.9,AKS Flat,perumbakkam,chennai-100</t>
+  </si>
+  <si>
+    <t>Hotel Sunshine</t>
+  </si>
+  <si>
+    <t>Deluxe</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Master Card</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>maragatham</t>
+  </si>
+  <si>
+    <t>2-One</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -55,15 +83,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,32 +388,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="34.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="9" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="33.88671875" customWidth="1"/>
+    <col min="12" max="12" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
-        <v>35520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
+      <c r="L1" s="4">
+        <v>1.2345678909876499E+17</v>
+      </c>
+      <c r="M1">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1">
+        <v>2022</v>
+      </c>
+      <c r="Q1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
